--- a/Data/Lab-linked/MaxTheoreticalFinalDeltas.xlsx
+++ b/Data/Lab-linked/MaxTheoreticalFinalDeltas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="26805" windowHeight="16320"/>
+    <workbookView xWindow="0" yWindow="525" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
   <si>
     <t>Calculating Maximum Theoretical Enrichment</t>
   </si>
@@ -521,6 +521,15 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>Model results</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>∆δ</t>
   </si>
 </sst>
 </file>
@@ -656,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -916,6 +925,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -924,7 +970,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1077,24 +1123,45 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1190,13 +1257,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1204,7 +1271,7 @@
         <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1241,13 +1308,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1255,7 +1322,7 @@
         <xdr:cNvPr id="3" name="image2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,14 +1366,14 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="image1.tif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,8 +1391,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4546600" y="2276475"/>
-          <a:ext cx="1228725" cy="419100"/>
+          <a:off x="4025153" y="2260226"/>
+          <a:ext cx="1228725" cy="462803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1357,7 +1424,7 @@
         <xdr:cNvPr id="5" name="image3.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,13 +1461,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1408,7 +1475,7 @@
         <xdr:cNvPr id="6" name="image4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,13 +1512,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>149411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>164352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1481,16 +1548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>717176</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676666</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>119529</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>702982</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28388</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635748</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>148220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1507,8 +1574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10115176" y="3914588"/>
-          <a:ext cx="7785100" cy="6019800"/>
+          <a:off x="11120548" y="3877235"/>
+          <a:ext cx="6066288" cy="5336544"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1521,13 +1588,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>634998</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>630515</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>630516</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2764,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2777,7 +2844,7 @@
     <col min="3" max="3" width="28.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
     <col min="8" max="9" width="19" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" style="1" customWidth="1"/>
@@ -2879,7 +2946,7 @@
       <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
@@ -2912,7 +2979,7 @@
       <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="64" t="s">
         <v>22</v>
       </c>
@@ -2982,7 +3049,7 @@
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="70"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="24" t="s">
         <v>25</v>
       </c>
@@ -2999,165 +3066,169 @@
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="N10" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78">
+        <v>-2.4</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="N11" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="60">
-        <v>-1.37</v>
-      </c>
-      <c r="J12" s="74">
-        <f>1/(1+$F$7*($H$7/$I$7)*I12/1000)</f>
-        <v>1.0209811628975445</v>
-      </c>
-      <c r="K12" s="69"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="4">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="67">
-        <f>1/(1+$F$7*($H$7/I7)*D13/1000)</f>
-        <v>1.0341261633919339</v>
+      <c r="C13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="67" t="s">
+        <v>88</v>
       </c>
       <c r="G13" s="68"/>
       <c r="H13" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="75">
-        <v>-1.74</v>
-      </c>
-      <c r="J13" s="74">
-        <f t="shared" ref="J13:J14" si="0">1/(1+$F$7*($H$7/$I$7)*I13/1000)</f>
-        <v>1.0267994660642776</v>
+        <v>90</v>
+      </c>
+      <c r="I13" s="60">
+        <v>-1.37</v>
+      </c>
+      <c r="J13" s="72">
+        <f>1/(1+$F$7*($H$7/$I$7)*I13/1000)</f>
+        <v>1.0209811628975445</v>
       </c>
       <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="4">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="67">
+        <f>1/(1+$F$7*($H$7/I7)*D14/1000)</f>
+        <v>1.0341261633919339</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="73">
+        <v>-1.74</v>
+      </c>
+      <c r="J14" s="72">
+        <f t="shared" ref="J14:J15" si="0">1/(1+$F$7*($H$7/$I$7)*I14/1000)</f>
+        <v>1.0267994660642776</v>
+      </c>
+      <c r="K14" s="69"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="4">
         <v>-2.6</v>
       </c>
-      <c r="F14" s="67">
-        <f>1/(1+$F$7*($H$7/$I$8)*D14/1000)</f>
+      <c r="F15" s="67">
+        <f>1/(1+$F$7*($H$7/$I$8)*D15/1000)</f>
         <v>1.0405827263267431</v>
       </c>
-      <c r="G14" s="67">
-        <f>F13-F14</f>
+      <c r="G15" s="67">
+        <f>F14-F15</f>
         <v>-6.456562934809229E-3</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H15" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I15" s="73">
         <v>-1.48</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J15" s="72">
         <f t="shared" si="0"/>
         <v>1.0227040294538761</v>
       </c>
-      <c r="K14" s="69"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="4">
+      <c r="K15" s="69"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="4">
         <v>-1.8</v>
       </c>
-      <c r="F15" s="67">
-        <f>1/(1+$F$7*($H$7/$I$7)*D15/1000)</f>
-        <v>1.0277492291880781</v>
-      </c>
-      <c r="G15" s="67">
-        <f>F15-F13</f>
-        <v>-6.3769342038557664E-3</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="4">
-        <v>-1.4</v>
-      </c>
-      <c r="E16" s="4"/>
       <c r="F16" s="67">
         <f>1/(1+$F$7*($H$7/$I$7)*D16/1000)</f>
+        <v>1.0277492291880781</v>
+      </c>
+      <c r="G16" s="67">
+        <f>F16-F14</f>
+        <v>-6.3769342038557664E-3</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="67">
+        <f>1/(1+$F$7*($H$7/$I$7)*D17/1000)</f>
         <v>1.0214504596527068</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -3166,10 +3237,10 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -3178,44 +3249,33 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="31"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="39">
-        <f>B78</f>
-        <v>-32.343166666666669</v>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="4"/>
@@ -3225,23 +3285,21 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="20">
-        <f t="shared" ref="B21:B27" si="1">D21*(1000+$B$20)-1000</f>
-        <v>-31.039904179649398</v>
-      </c>
-      <c r="C21" s="41">
-        <f t="shared" ref="C21:C27" si="2">(1-E21)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" ref="D21:D27" si="3">E21^($K$8/1000)</f>
-        <v>1.0013468230080367</v>
-      </c>
-      <c r="E21" s="20">
-        <v>0.5</v>
+      <c r="A21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="39">
+        <f>B100</f>
+        <v>-32.343166666666669</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="4"/>
@@ -3255,19 +3313,19 @@
         <v>34</v>
       </c>
       <c r="B22" s="20">
-        <f t="shared" si="1"/>
-        <v>-30.619973993559597</v>
+        <f t="shared" ref="B22:B28" si="1">D22*(1000+$B$21)-1000</f>
+        <v>-31.039904179649398</v>
       </c>
       <c r="C22" s="41">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <f t="shared" ref="C22:C28" si="2">(1-E22)</f>
+        <v>0.5</v>
       </c>
       <c r="D22" s="20">
-        <f t="shared" si="3"/>
-        <v>1.0017807890294859</v>
+        <f t="shared" ref="D22:D28" si="3">E22^($K$8/1000)</f>
+        <v>1.0013468230080367</v>
       </c>
       <c r="E22" s="20">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="4"/>
@@ -3282,18 +3340,18 @@
       </c>
       <c r="B23" s="20">
         <f t="shared" si="1"/>
-        <v>-30.07832125664288</v>
+        <v>-30.619973993559597</v>
       </c>
       <c r="C23" s="41">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D23" s="20">
         <f t="shared" si="3"/>
-        <v>1.0023405460820465</v>
+        <v>1.0017807890294859</v>
       </c>
       <c r="E23" s="20">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="4"/>
@@ -3308,18 +3366,18 @@
       </c>
       <c r="B24" s="20">
         <f t="shared" si="1"/>
-        <v>-29.314390671002684</v>
+        <v>-30.07832125664288</v>
       </c>
       <c r="C24" s="41">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D24" s="20">
         <f t="shared" si="3"/>
-        <v>1.0031300104451601</v>
+        <v>1.0023405460820465</v>
       </c>
       <c r="E24" s="20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="4"/>
@@ -3334,18 +3392,18 @@
       </c>
       <c r="B25" s="20">
         <f t="shared" si="1"/>
-        <v>-28.007048958788232</v>
+        <v>-29.314390671002684</v>
       </c>
       <c r="C25" s="41">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D25" s="20">
         <f t="shared" si="3"/>
-        <v>1.0044810490232798</v>
+        <v>1.0031300104451601</v>
       </c>
       <c r="E25" s="20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="4"/>
@@ -3360,18 +3418,18 @@
       </c>
       <c r="B26" s="20">
         <f t="shared" si="1"/>
-        <v>-26.69794648867628</v>
+        <v>-28.007048958788232</v>
       </c>
       <c r="C26" s="41">
         <f t="shared" si="2"/>
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="D26" s="20">
         <f t="shared" si="3"/>
-        <v>1.0058339072112414</v>
+        <v>1.0044810490232798</v>
       </c>
       <c r="E26" s="20">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="4"/>
@@ -3386,18 +3444,18 @@
       </c>
       <c r="B27" s="20">
         <f t="shared" si="1"/>
-        <v>-23.651500894890091</v>
+        <v>-26.69794648867628</v>
       </c>
       <c r="C27" s="41">
         <f t="shared" si="2"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D27" s="20">
         <f t="shared" si="3"/>
-        <v>1.0089821778469088</v>
+        <v>1.0058339072112414</v>
       </c>
       <c r="E27" s="20">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="4"/>
@@ -3406,13 +3464,26 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="4"/>
+    <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="20">
+        <f t="shared" si="1"/>
+        <v>-23.651500894890091</v>
+      </c>
+      <c r="C28" s="41">
+        <f t="shared" si="2"/>
+        <v>0.99</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="3"/>
+        <v>1.0089821778469088</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="31"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -3420,44 +3491,33 @@
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="31"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="39">
-        <f>B78</f>
-        <v>-32.343166666666669</v>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="4"/>
@@ -3467,23 +3527,21 @@
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="20">
-        <f t="shared" ref="B31:B37" si="4">D31*(1000+$B$20)-1000</f>
-        <v>-31.262690835838953</v>
-      </c>
-      <c r="C31" s="41">
-        <f t="shared" ref="C31:C37" si="5">(1-E31)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="20">
-        <f t="shared" ref="D31:D37" si="6">E31^($K$9/1000)</f>
-        <v>1.001116589883529</v>
-      </c>
-      <c r="E31" s="20">
-        <v>0.5</v>
+      <c r="A31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="39">
+        <f>$B$100</f>
+        <v>-32.343166666666669</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="4"/>
@@ -3497,19 +3555,19 @@
         <v>34</v>
       </c>
       <c r="B32" s="20">
-        <f t="shared" si="4"/>
-        <v>-30.914598663224865</v>
+        <f t="shared" ref="B32:B38" si="4">D32*(1000+$B$21)-1000</f>
+        <v>-31.262690835838953</v>
       </c>
       <c r="C32" s="41">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
+        <f t="shared" ref="C32:C38" si="5">(1-E32)</f>
+        <v>0.5</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" si="6"/>
-        <v>1.0014763167625456</v>
+        <f t="shared" ref="D32:D38" si="6">E32^($K$9/1000)</f>
+        <v>1.001116589883529</v>
       </c>
       <c r="E32" s="20">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="4"/>
@@ -3524,18 +3582,18 @@
       </c>
       <c r="B33" s="20">
         <f t="shared" si="4"/>
-        <v>-30.465645221196951</v>
+        <v>-30.914598663224865</v>
       </c>
       <c r="C33" s="41">
         <f t="shared" si="5"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D33" s="20">
         <f t="shared" si="6"/>
-        <v>1.0019402761193781</v>
+        <v>1.0014763167625456</v>
       </c>
       <c r="E33" s="20">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="4"/>
@@ -3550,18 +3608,18 @@
       </c>
       <c r="B34" s="20">
         <f t="shared" si="4"/>
-        <v>-29.832527707816553</v>
+        <v>-30.465645221196951</v>
       </c>
       <c r="C34" s="41">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D34" s="20">
         <f t="shared" si="6"/>
-        <v>1.0025945550864366</v>
+        <v>1.0019402761193781</v>
       </c>
       <c r="E34" s="20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="4"/>
@@ -3576,18 +3634,18 @@
       </c>
       <c r="B35" s="20">
         <f t="shared" si="4"/>
-        <v>-28.749248522926109</v>
+        <v>-29.832527707816553</v>
       </c>
       <c r="C35" s="41">
         <f t="shared" si="5"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D35" s="20">
         <f t="shared" si="6"/>
-        <v>1.0037140420239274</v>
+        <v>1.0025945550864366</v>
       </c>
       <c r="E35" s="20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="4"/>
@@ -3602,18 +3660,18 @@
       </c>
       <c r="B36" s="20">
         <f t="shared" si="4"/>
-        <v>-27.664759759456842</v>
+        <v>-28.749248522926109</v>
       </c>
       <c r="C36" s="41">
         <f t="shared" si="5"/>
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="D36" s="20">
         <f t="shared" si="6"/>
-        <v>1.0048347789692074</v>
+        <v>1.0037140420239274</v>
       </c>
       <c r="E36" s="20">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="4"/>
@@ -3628,18 +3686,18 @@
       </c>
       <c r="B37" s="20">
         <f t="shared" si="4"/>
-        <v>-25.141982416169185</v>
+        <v>-27.664759759456842</v>
       </c>
       <c r="C37" s="41">
         <f t="shared" si="5"/>
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D37" s="20">
         <f t="shared" si="6"/>
-        <v>1.0074418781560104</v>
+        <v>1.0048347789692074</v>
       </c>
       <c r="E37" s="20">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="4"/>
@@ -3648,397 +3706,914 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
+    <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="20">
+        <f t="shared" si="4"/>
+        <v>-25.141982416169185</v>
+      </c>
+      <c r="C38" s="41">
+        <f t="shared" si="5"/>
+        <v>0.99</v>
+      </c>
+      <c r="D38" s="20">
+        <f t="shared" si="6"/>
+        <v>1.0074418781560104</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+    </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="39">
+        <f>$B$100</f>
+        <v>-32.343166666666669</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="60"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="20">
+        <f t="shared" ref="B43:B47" si="7">D43*(1000+$B$21)-1000</f>
+        <v>-32.09844895261358</v>
+      </c>
+      <c r="C43" s="41">
+        <f t="shared" ref="C43:C47" si="8">(1-E43)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="D43" s="20">
+        <f t="shared" ref="D43:D47" si="9">E43^($K$10/1000)</f>
+        <v>1.0002528972106879</v>
+      </c>
+      <c r="E43" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="F43" s="60">
+        <f>B43-B42</f>
+        <v>0.24471771405308829</v>
+      </c>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="20">
+        <f t="shared" si="7"/>
+        <v>-31.824804558677556</v>
+      </c>
+      <c r="C44" s="41">
+        <f t="shared" si="8"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="D44" s="20">
+        <f t="shared" si="9"/>
+        <v>1.0005356879527254</v>
+      </c>
+      <c r="E44" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F44" s="60"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="20">
+        <f t="shared" si="7"/>
+        <v>-31.5144785582537</v>
+      </c>
+      <c r="C45" s="41">
+        <f t="shared" si="8"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D45" s="20">
+        <f t="shared" si="9"/>
+        <v>1.0008563863550246</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="20">
+        <f t="shared" si="7"/>
+        <v>-31.156109787314222</v>
+      </c>
+      <c r="C46" s="41">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="D46" s="20">
+        <f t="shared" si="9"/>
+        <v>1.0012267333195626</v>
+      </c>
+      <c r="E46" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="F46" s="60"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="20">
+        <f t="shared" si="7"/>
+        <v>-30.953767602421863</v>
+      </c>
+      <c r="C47" s="41">
+        <f t="shared" si="8"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D47" s="20">
+        <f t="shared" si="9"/>
+        <v>1.0014358386324402</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F47" s="60"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="20">
+        <f t="shared" ref="B48:B57" si="10">D48*(1000+$B$21)-1000</f>
+        <v>-30.732078318737649</v>
+      </c>
+      <c r="C48" s="41">
+        <f>(1-E48)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="20">
+        <f>E48^($K$10/1000)</f>
+        <v>1.0016649377056319</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="60"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="20">
+        <f t="shared" si="10"/>
+        <v>-30.48695316493513</v>
+      </c>
+      <c r="C49" s="41">
+        <f>(1-E49)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D49" s="20">
+        <f>E49^($K$10/1000)</f>
+        <v>1.0019182559744215</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="F49" s="60"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="20">
+        <f t="shared" si="10"/>
+        <v>-30.212853170129847</v>
+      </c>
+      <c r="C50" s="41">
+        <f t="shared" ref="C50:C57" si="11">(1-E50)</f>
+        <v>0.6</v>
+      </c>
+      <c r="D50" s="20">
+        <f t="shared" ref="D50:D57" si="12">E50^($K$10/1000)</f>
+        <v>1.0022015175454282</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="F50" s="60">
+        <f>B50-B48</f>
+        <v>0.51922514860780211</v>
+      </c>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="20">
+        <f t="shared" si="10"/>
+        <v>-29.543045063627915</v>
+      </c>
+      <c r="C51" s="81">
+        <f t="shared" si="11"/>
+        <v>0.7</v>
+      </c>
+      <c r="D51" s="20">
+        <f t="shared" si="12"/>
+        <v>1.0028937134597531</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="F51" s="60"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="20">
+        <f t="shared" si="10"/>
+        <v>-29.118307609070939</v>
+      </c>
+      <c r="C52" s="41">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="20">
+        <f t="shared" si="12"/>
+        <v>1.0033326474288276</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="F52" s="60"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="20">
+        <f t="shared" si="10"/>
+        <v>-28.598217982935353</v>
+      </c>
+      <c r="C53" s="81">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="D53" s="20">
+        <f t="shared" si="12"/>
+        <v>1.0038701206406313</v>
+      </c>
+      <c r="E53" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="F53" s="83">
+        <f>B53-B48</f>
+        <v>2.1338603358022965</v>
+      </c>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="20">
+        <f t="shared" si="10"/>
+        <v>-27.927294687661515</v>
+      </c>
+      <c r="C54" s="81">
+        <f t="shared" si="11"/>
+        <v>0.85</v>
+      </c>
+      <c r="D54" s="20">
+        <f t="shared" si="12"/>
+        <v>1.0045634690180336</v>
+      </c>
+      <c r="E54" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="F54" s="82"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="20">
+        <f t="shared" si="10"/>
+        <v>-26.980894528737167</v>
+      </c>
+      <c r="C55" s="41">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="D55" s="20">
+        <f t="shared" si="12"/>
+        <v>1.0055415018560432</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F55" s="60"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="20">
+        <f t="shared" si="10"/>
+        <v>-25.360878331737808</v>
+      </c>
+      <c r="C56" s="41">
+        <f t="shared" si="11"/>
+        <v>0.95</v>
+      </c>
+      <c r="D56" s="20">
+        <f t="shared" si="12"/>
+        <v>1.007215665817061</v>
+      </c>
+      <c r="E56" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="F56" s="60"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="20">
+        <f t="shared" si="10"/>
+        <v>-21.588907349802639</v>
+      </c>
+      <c r="C57" s="41">
+        <f t="shared" si="11"/>
+        <v>0.99</v>
+      </c>
+      <c r="D57" s="20">
+        <f t="shared" si="12"/>
+        <v>1.011113711954907</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="F57" s="60"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+    </row>
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+    </row>
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B63" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C63" s="52">
         <f>[1]MassAll!D32</f>
         <v>-33.234000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B64" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C64" s="52">
         <f>[1]MassAll!D33</f>
         <v>-32.963999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B65" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="52">
+      <c r="C65" s="52">
         <f>[1]MassAll!D34</f>
         <v>-32.679000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B66" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C66" s="52">
         <f>[1]MassAll!D35</f>
         <v>-32.697000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B67" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C67" s="52">
         <f>[1]MassAll!D36</f>
         <v>-32.427</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B68" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C68" s="52">
         <f>[1]MassAll!D37</f>
         <v>-32.283999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="52" t="s">
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B69" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="52">
+      <c r="C69" s="52">
         <f>[1]MassAll!D38</f>
         <v>-32.448</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B70" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C70" s="52">
         <f>[1]MassAll!D39</f>
         <v>-32.317999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52" t="s">
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B71" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C71" s="52">
         <f>[1]MassAll!D40</f>
         <v>-32.152999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52" t="s">
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B72" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="52">
+      <c r="C72" s="52">
         <f>[1]MassAll!D41</f>
         <v>-31.581</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52" t="s">
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B73" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="52">
+      <c r="C73" s="52">
         <f>[1]MassAll!D42</f>
         <v>-31.687999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52" t="s">
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B74" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C74" s="52">
         <f>[1]MassAll!D43</f>
         <v>-31.645</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="53" t="s">
+    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B76" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="54">
+      <c r="C76" s="54">
         <f>[1]MassAll!D46</f>
         <v>-32.375</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B77" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C77" s="54">
         <f>[1]MassAll!D47</f>
         <v>-32.651000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="52" t="s">
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B78" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C78" s="52">
         <f>[1]MassAll!D48</f>
         <v>-31.660999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
+    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B79" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="52">
+      <c r="C79" s="52">
         <f>[1]MassAll!D49</f>
         <v>-31.782999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="52" t="s">
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B80" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="52">
+      <c r="C80" s="52">
         <f>[1]MassAll!D50</f>
         <v>-31.959</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="58" t="s">
+    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="56"/>
+      <c r="B84" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C84" s="58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57" t="s">
+    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="59">
-        <f>AVERAGE(C54:C55)</f>
+      <c r="B85" s="59">
+        <f>AVERAGE(C76:C77)</f>
         <v>-32.513000000000005</v>
       </c>
-      <c r="C63" s="59">
-        <f>STDEVA(C54:C55)</f>
+      <c r="C85" s="59">
+        <f>STDEVA(C76:C77)</f>
         <v>0.19516147160748948</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="59">
-        <f>AVERAGE(C56:C58)</f>
+      <c r="B86" s="59">
+        <f>AVERAGE(C78:C80)</f>
         <v>-31.800999999999998</v>
       </c>
-      <c r="C64" s="59">
-        <f>STDEVA(C56:C58)</f>
+      <c r="C86" s="59">
+        <f>STDEVA(C78:C80)</f>
         <v>0.149813217040421</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="58" t="s">
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+    </row>
+    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="56"/>
+      <c r="B88" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C88" s="58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="57" t="s">
+    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="59">
-        <f>AVERAGE(C44:C46)</f>
+      <c r="B89" s="59">
+        <f>AVERAGE(C66:C68)</f>
         <v>-32.469333333333331</v>
       </c>
-      <c r="C67" s="59">
-        <f>STDEVA(C44:C46)</f>
+      <c r="C89" s="59">
+        <f>STDEVA(C66:C68)</f>
         <v>0.20972919046554814</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="57" t="s">
+    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="59">
-        <f>AVERAGE(C50:C52)</f>
+      <c r="B90" s="59">
+        <f>AVERAGE(C72:C74)</f>
         <v>-31.638000000000002</v>
       </c>
-      <c r="C68" s="59">
-        <f>STDEVA(C50:C52)</f>
+      <c r="C90" s="59">
+        <f>STDEVA(C72:C74)</f>
         <v>5.3842362503886909E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
-      <c r="B70" s="58" t="s">
+    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="60"/>
+      <c r="C91" s="60"/>
+    </row>
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="56"/>
+      <c r="B92" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C92" s="58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="57" t="s">
+    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="59">
-        <f>AVERAGE(C41:C43)</f>
+      <c r="B93" s="59">
+        <f>AVERAGE(C63:C65)</f>
         <v>-32.959000000000003</v>
       </c>
-      <c r="C71" s="59">
-        <f>STDEVA(C41:C43)</f>
+      <c r="C93" s="59">
+        <f>STDEVA(C63:C65)</f>
         <v>0.27753378172755816</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="57" t="s">
+    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="59">
-        <f>AVERAGE(C47:C49)</f>
+      <c r="B94" s="59">
+        <f>AVERAGE(C69:C71)</f>
         <v>-32.306333333333328</v>
       </c>
-      <c r="C72" s="59">
-        <f>STDEVA(C47:C49)</f>
+      <c r="C94" s="59">
+        <f>STDEVA(C69:C71)</f>
         <v>0.14784564022430138</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="60"/>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-    </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="62" t="s">
+    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="55"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="60"/>
+    </row>
+    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="55"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+    </row>
+    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="60">
-        <f>AVERAGE(C54:C58)</f>
+      <c r="B99" s="60">
+        <f>AVERAGE(C76:C80)</f>
         <v>-32.085799999999999</v>
       </c>
-      <c r="C77" s="60">
-        <f>STDEVA(C54:C58)</f>
+      <c r="C99" s="60">
+        <f>STDEVA(C76:C80)</f>
         <v>0.4157249090444326</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="62" t="s">
+    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="60">
-        <f>AVERAGE(C41:C52)</f>
+      <c r="B100" s="60">
+        <f>AVERAGE(C63:C74)</f>
         <v>-32.343166666666669</v>
       </c>
-      <c r="C78" s="60">
-        <f>STDEVA(C41:C52)</f>
+      <c r="C100" s="60">
+        <f>STDEVA(C63:C74)</f>
         <v>0.51986831083079243</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="62" t="s">
+    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="60">
-        <f>AVERAGE(C44:C46,C50:C52)</f>
+      <c r="B102" s="60">
+        <f>AVERAGE(C66:C68,C72:C74)</f>
         <v>-32.053666666666665</v>
       </c>
-      <c r="C80" s="60">
-        <f>STDEVA(C44:C46,C50:C52)</f>
+      <c r="C102" s="60">
+        <f>STDEVA(C66:C68,C72:C74)</f>
         <v>0.47548781968276282</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="62" t="s">
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="60">
-        <f>AVERAGE(C41:C43,C47:C49)</f>
+      <c r="B103" s="60">
+        <f>AVERAGE(C63:C65,C69:C71)</f>
         <v>-32.632666666666672</v>
       </c>
-      <c r="C81" s="60">
-        <f>STDEVA(C41:C43,C47:C49)</f>
+      <c r="C103" s="60">
+        <f>STDEVA(C63:C65,C69:C71)</f>
         <v>0.40907880251446349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
